--- a/Введение в специальность/ПР1 Колонин.xlsx
+++ b/Введение в специальность/ПР1 Колонин.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F737F8-FA93-47C6-B97D-7A719FC2CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 8" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,9 +73,6 @@
     <t>Белый</t>
   </si>
   <si>
-    <t>Посуммируйте количество из колонки 12 строк (со 14 по 24) "Количество"</t>
-  </si>
-  <si>
     <t>СУММ</t>
   </si>
   <si>
@@ -102,9 +109,6 @@
     <t>Просуммируйте количество при условии, что "Категория"="Ромашка" , "Признак"="Розовый"</t>
   </si>
   <si>
-    <t>СУММЕСЛИ</t>
-  </si>
-  <si>
     <t>Красный</t>
   </si>
   <si>
@@ -130,18 +134,33 @@
   </si>
   <si>
     <t>Фиалка</t>
+  </si>
+  <si>
+    <t>Посуммируйте количество из колонки 11 строк (со 14 по 24) "Количество"</t>
+  </si>
+  <si>
+    <t>СУММЕСЛИМН</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -238,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,25 +539,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="121.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="121.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -571,17 +593,26 @@
       <c r="C2" s="3">
         <v>72</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4" t="str">
+        <f>_xlfn.CONCAT(B2,",",A2)</f>
+        <v>Розовый,Ромашка</v>
+      </c>
+      <c r="E2" s="5">
+        <f>VLOOKUP(A2,$F$15:$G$23,2,FALSE)</f>
+        <v>100</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="8">
+        <f>AVERAGE(C2:C16)</f>
+        <v>58.06666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -591,39 +622,57 @@
       <c r="C3" s="3">
         <v>94</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D24" si="0">_xlfn.CONCAT(B3,",",A3)</f>
+        <v>Белый,Орхидея</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="1">VLOOKUP(A3,$F$15:$G$23,2,FALSE)</f>
+        <v>200</v>
+      </c>
       <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="8">
+        <f>SUM(C14:C24)</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>46</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Орхидея</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="8">
+        <f>MIN(C2:C24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -631,19 +680,28 @@
       <c r="C5" s="3">
         <v>83</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Белый,Гортензия</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
       <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="8">
+        <f>MAX(C2:C24)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -651,19 +709,28 @@
       <c r="C6" s="3">
         <v>97</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Белый,Лилия</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
       <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="8" t="str">
+        <f>IF(C11&gt;C10,"Больше","Меньше")</f>
+        <v>Больше</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -671,37 +738,55 @@
       <c r="C7" s="3">
         <v>58</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Белый,Роза</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUMIFS(C:C, A:A, "Ромашка", B:B, "Розовый")</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный,Орхидея</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8">
+        <f>COUNTIF(B2:B24,"Желтый")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -711,38 +796,56 @@
       <c r="C9" s="3">
         <v>68</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Розовый,Ромашка</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>59</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый,Роза</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>83</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Тюльпан</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -750,28 +853,41 @@
       <c r="C12" s="3">
         <v>65</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Белый,Лилия</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Гортензия</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -779,8 +895,14 @@
       <c r="C14" s="3">
         <v>54</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Розовый,Гортензия</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,18 +910,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный,Гвоздика</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,18 +935,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>56</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Орхидея</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
@@ -826,151 +960,202 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>96</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый,Гортензия</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>96</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный,Нарцисс</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>62</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Тюльпан</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>27</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Ромашка</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>25</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Фиолетовый,Гортензия</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3">
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <v>97</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый,Роза</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>59</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный,Фиалка</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>19</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый,Орхидея</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
